--- a/★引っ越し用/デジタルスレッド.xlsx
+++ b/★引っ越し用/デジタルスレッド.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chach\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CBB36C4-6199-4597-87FB-F1D088B69557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE437D2F-06EF-4A92-B9FB-6440D465E0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10860" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{11802370-69FF-4E91-8B0F-55BD54AB11EE}"/>
+    <workbookView xWindow="-10860" yWindow="-21710" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{11802370-69FF-4E91-8B0F-55BD54AB11EE}"/>
   </bookViews>
   <sheets>
     <sheet name="グラフDB用データの理解" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +35,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>笹岡優樹</author>
+  </authors>
+  <commentList>
+    <comment ref="R13" authorId="0" shapeId="0" xr:uid="{186C8EDF-E61C-4024-9890-186AB3B44767}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>仕入先工場名のみだと、他仕入先との区別がつかない可能性があるため、頭に仕入先名をつける</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
   <si>
     <t>v_defect</t>
     <phoneticPr fontId="1"/>
@@ -68,6 +95,497 @@
   </si>
   <si>
     <t>edges（エッジファイル）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~label</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v_kanban</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんばんシリアル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発注日時</t>
+    <rPh sb="0" eb="2">
+      <t>ハッチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>印刷日時</t>
+    <rPh sb="0" eb="2">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検収日時</t>
+    <rPh sb="0" eb="2">
+      <t>ケンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順立装置入庫日時</t>
+    <rPh sb="0" eb="1">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウコ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順立装置出庫日時</t>
+    <rPh sb="0" eb="1">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュッコ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回収日時</t>
+    <rPh sb="0" eb="2">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~from</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HAS_KANBAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品番_整備室コード</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンバン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>セイビシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収容数</t>
+    <rPh sb="0" eb="3">
+      <t>シュウヨウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>箱種</t>
+    <rPh sb="0" eb="2">
+      <t>ハコシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成方法：所在管理テーブルから生成</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショザイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・一部簡略化</t>
+    <rPh sb="1" eb="3">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カンリャクカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコープ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日量数</t>
+    <rPh sb="0" eb="3">
+      <t>ニチリョウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成方法：所在管理テーブルから作成</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ショザイカンリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品番_整備室コード_日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンバン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>セイビシツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品番_整備室コード_日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイビ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HAS_PLAN_QUANTITY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノード（エンティティ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エッジ（リレーション）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・~id（識別子）は一意に決める必要がある。~idは参照キーとして使用される</t>
+    <rPh sb="5" eb="8">
+      <t>シキベツシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>part_kanban_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e_from_part_to_kanban.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整備室コード</t>
+    <rPh sb="0" eb="3">
+      <t>セイビシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seibishitu_part_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e_from_seibishitu_to_part.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MANAGES_PART</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e_from_supplierfactory_to_seibishitu.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕入先名_仕入先工場名</t>
+    <rPh sb="0" eb="2">
+      <t>シイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>コウジョウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>supplierfactory_seibishitu_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SUPPLIES_PART_TO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e_from_part_to_plan_quantity.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v_tehai_hitsuyosu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v_tehai_unyo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品番_整備室コード_設定日_削除日</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイビ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>セッテイビ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>サクジョビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v_supplierfactory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PART</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SUPPLIER_FACTORY</t>
+  </si>
+  <si>
+    <t>order_timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>print_timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>acceptance_timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stock_in_timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stock_out_timestam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>collection_timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KANBAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャメルケース：SupplierFactory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スネークケース：SUPPLIER_FACTORY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスカルケース：SUPPLIERFACTORY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>planned_daily_usage</t>
+  </si>
+  <si>
+    <t>usage_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品名</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>part_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基準在庫日数</t>
+    <rPh sb="0" eb="2">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基準在庫枚数</t>
+    <rPh sb="0" eb="2">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定日</t>
+    <rPh sb="0" eb="3">
+      <t>セッテイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除日</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e_.csv</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -75,7 +593,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,8 +618,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,13 +640,46 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -129,11 +688,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1187,6 +1773,4554 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>はかんばんシリアル？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16365855-A454-9E5F-F442-2C7979F4B791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12654280" y="18333720"/>
+          <a:ext cx="916940" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1383456" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6D65571-FE27-845B-DC39-87863305B027}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13228320" y="19663410"/>
+          <a:ext cx="1383456" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>品番</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>整備室コード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1334770</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>842010</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9FDDF4-B251-41FE-80BE-B9BB8F7524F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10485120" y="17940020"/>
+          <a:ext cx="923290" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371064</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>185271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>626334</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>185271</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{891F6FC2-0DF0-4308-ABA9-52E1FC6E34F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12137240" y="23344095"/>
+          <a:ext cx="927623" cy="926352"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>332740</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D2B893-AC25-4726-81D7-FF39D61F6CF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13862050" y="18699480"/>
+          <a:ext cx="923290" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>705713</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>15801</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E77CA5-6E97-448D-FDA2-98B072DB6C5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="4" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11272113" y="19246850"/>
+          <a:ext cx="1840637" cy="2943151"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161888</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6724</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>186541</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A30CD0A-FF12-4991-B8C3-E9ABC8A8E38F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12600417" y="20424215"/>
+          <a:ext cx="517189" cy="2921150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>544195</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA347EB-CF50-4A43-A95E-DE570B15450E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13112750" y="19246850"/>
+          <a:ext cx="1210945" cy="2882900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1332230</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>21590</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="820417" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E2B525-7856-4002-8DFF-F5EF50477461}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10482580" y="19681190"/>
+          <a:ext cx="820417" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>かんばん</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>415290</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="820417" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484C745B-D8C8-4257-A6A7-C8A9E97E9C17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12175490" y="19700240"/>
+          <a:ext cx="820417" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>かんばん</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>567690</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="984693" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041AC761-7077-4306-ABDA-EDF763E75629}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11134090" y="20227290"/>
+          <a:ext cx="984693" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HAS_KANBAN</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>582930</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>59690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>59690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="楕円 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484CCB40-0BCA-436F-AD09-06792CF35A7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7479030" y="13775690"/>
+          <a:ext cx="922020" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>661035</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F0996F5-C8AD-4E8D-B004-BF7F6027ADFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="112" idx="4"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13112750" y="15455900"/>
+          <a:ext cx="1327785" cy="2876550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>334010</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1625317" cy="367793"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF81246E-D518-457D-92BA-D53CE14B6EEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5833110" y="14598650"/>
+          <a:ext cx="1625317" cy="367793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>仕入先名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>仕入先工場</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>280670</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>1270</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1152431" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F977B531-2757-4EE1-A00F-9187F0E00E24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12713970" y="17146270"/>
+          <a:ext cx="1152431" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>MANAGES_PART</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660662</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>458359</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>100927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A24079AC-C64F-4BA3-8A54-BBC89728337C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="112" idx="4"/>
+          <a:endCxn id="420" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14443897" y="16814053"/>
+          <a:ext cx="1814756" cy="2740286"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>172720</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>427990</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="楕円 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E75D27-026F-4C20-BBD0-9844A93C54D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13952220" y="13061950"/>
+          <a:ext cx="928370" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="15000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>467360</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>62230</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6C1D75-DFC1-4937-A381-E196C30C593D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="6"/>
+          <a:endCxn id="37" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8398510" y="13520420"/>
+          <a:ext cx="5556250" cy="715010"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1355238</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>183104</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1321771" cy="795543"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4869D637-3A7E-4554-93E7-A1EFD749150C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10506709" y="17320633"/>
+          <a:ext cx="1321771" cy="795543"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>トラックダイヤを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>prpperty</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で持たせる？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1030195</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>15539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4669</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>62230</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2367A79A-7AE3-44F7-BEE3-DEE229931B0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="259" idx="4"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7925548" y="13910833"/>
+          <a:ext cx="12886" cy="1204632"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1286510</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>807720</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="楕円 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFCB660A-36F3-43C2-9A2C-E29A6071FB8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6785610" y="17475200"/>
+          <a:ext cx="918210" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E06253C7-480E-4BD2-A406-7DE2CA84191B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="55" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7702550" y="18789650"/>
+          <a:ext cx="4953000" cy="2574290"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1191260</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1464312" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="テキスト ボックス 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F28FA27-D84A-4A1F-9697-DABA1244BA8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9122410" y="16588740"/>
+          <a:ext cx="1464312" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HAS_PLAN_QUANTITY</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1239520</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>751840</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="楕円 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D9E12E-D048-49E1-980C-BE34375CA848}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6738620" y="16076930"/>
+          <a:ext cx="909320" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1198880</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>725170</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="楕円 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A283E7-D499-4764-AC23-A3E56BE03AD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6697980" y="14712950"/>
+          <a:ext cx="923290" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>753110</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直線矢印コネクタ 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA21F2B-9749-4AD0-9CAB-DFCA3D854E4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="65" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7649210" y="18789650"/>
+          <a:ext cx="5006340" cy="1173480"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>725170</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2798549E-0FBD-4286-AB05-FA3D76A72C6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="66" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7621270" y="18597880"/>
+          <a:ext cx="5034280" cy="191770"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>189230</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>223520</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="823046" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="テキスト ボックス 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5B66CB-7BE9-4DEA-A60D-D4E5697D06CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13968730" y="19654520"/>
+          <a:ext cx="823046" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>かんばん</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>n</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="843051" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="テキスト ボックス 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBB59344-9779-4F31-B9B7-D4C926678B62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6737350" y="15652750"/>
+          <a:ext cx="843051" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2025-08-01</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1294130</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>90170</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="843051" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="テキスト ボックス 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC18FCD-02E0-4CAA-9FCB-ABF8CD614BD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6793230" y="17006570"/>
+          <a:ext cx="843051" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2025-08-02</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1339850</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="843051" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="テキスト ボックス 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BACB068D-7566-4086-9746-CBB0ED3F2190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838950" y="18446750"/>
+          <a:ext cx="843051" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2025-08-03</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>251310</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>227479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1169296</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>227478</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="楕円 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0D90E4-D408-458D-BCEE-45B79C5DC69E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8185075" y="19680891"/>
+          <a:ext cx="917986" cy="926352"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295835</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>4931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1221665</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>4932</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="楕円 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A2ED0D-89B6-4E6F-82EB-36DA54927EBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9447306" y="19226755"/>
+          <a:ext cx="925830" cy="926353"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1037400</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>91817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>356051</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>180111</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="直線矢印コネクタ 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF83605F-273F-4790-8CD6-AAF4CF9443E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="100" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8971165" y="20471582"/>
+          <a:ext cx="3823415" cy="551470"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1086266</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>99589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>356051</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>180111</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="直線矢印コネクタ 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D128DCB-A315-4E46-94A2-31F286B88AF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="101" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10237737" y="20016177"/>
+          <a:ext cx="2556843" cy="1006875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200660</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>448310</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="楕円 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{573F6D81-C65B-44AF-AC0B-5851EE2A72B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13980160" y="14538960"/>
+          <a:ext cx="920750" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>182582</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>202826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>420072</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>202826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="楕円 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C7767A-0D9F-4A02-B958-6F880ACE3854}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13965817" y="12708591"/>
+          <a:ext cx="909843" cy="926353"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>467360</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>62230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>199390</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="直線矢印コネクタ 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C46BF1AD-8DB0-4F65-98D0-B4B142EB86A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="6"/>
+          <a:endCxn id="112" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8398510" y="14235430"/>
+          <a:ext cx="5580380" cy="763270"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>199390</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748090" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="テキスト ボックス 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80C6DCB-F2BD-4430-945D-C30FD5DB573D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13157200" y="15286990"/>
+          <a:ext cx="748090" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>整備室</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1Y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>670411</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>175857</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="960328" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="205" name="テキスト ボックス 204">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637087BD-2478-45C6-97F1-A92E6557C918}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15125999" y="13839563"/>
+          <a:ext cx="960328" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BELONGS_TO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>199390</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>97790</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="714363" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="テキスト ボックス 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDEC7B6F-E8F3-43DA-A67F-42B044E44FAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10765790" y="14270990"/>
+          <a:ext cx="714363" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SUPPLIES</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>204321</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>15016</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="862929" cy="272180"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="219" name="テキスト ボックス 218">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29684929-4A13-4FD8-B6AD-2A96E9CA445E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7099674" y="14373487"/>
+          <a:ext cx="862929" cy="272180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HAS_PLANT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>652780</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="745397" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="249" name="テキスト ボックス 248">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9232FB3E-0D26-4776-81EE-12805DAE77DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13086080" y="13728700"/>
+          <a:ext cx="745397" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>整備室</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1Z</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>231140</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>154940</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1383456" cy="379223"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="255" name="テキスト ボックス 254">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A682856-DCAA-460F-8E2D-1316A3188429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16029940" y="19585940"/>
+          <a:ext cx="1383456" cy="379223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>品番</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>整備室コード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1355090</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1280479" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="256" name="テキスト ボックス 255">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C6B564-1D19-403D-A51E-C55474290331}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10505440" y="18360390"/>
+          <a:ext cx="1280479" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HAS_DESIGN_INFO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571949</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>18079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>448759</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>18079</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="259" name="楕円 258">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06627AE1-8E4C-0508-CCC5-11FBCBAE7510}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467302" y="12987020"/>
+          <a:ext cx="915222" cy="926353"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1161303</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>100704</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="289053"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="260" name="テキスト ボックス 259">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A10969-C55A-06F5-D33D-1E787792F8F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6659656" y="13301233"/>
+          <a:ext cx="748923" cy="289053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>仕入先名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>420072</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>200287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>33021</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="321" name="コネクタ: 曲線 320">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927507A6-0EE9-3B48-7D5B-2996CAA4891C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="127" idx="6"/>
+          <a:endCxn id="37" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14875660" y="13169228"/>
+          <a:ext cx="6648" cy="1685440"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3538628"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>420072</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>200287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="322" name="コネクタ: 曲線 321">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02187957-306D-4942-B51D-0F960C781EBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="127" idx="6"/>
+          <a:endCxn id="112" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14875660" y="13169228"/>
+          <a:ext cx="29508" cy="3181649"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 874705"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85986</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="372" name="テキスト ボックス 371">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BA04D4A-6B68-4BF1-82A8-2A37C29708D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12870329" y="13054927"/>
+          <a:ext cx="1031051" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>安城第一工場</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1012565</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>202006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>322955</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>202006</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="377" name="楕円 376">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92221923-5FFE-43BF-B3A6-C2A0D53F45D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20421153" y="19192241"/>
+          <a:ext cx="916567" cy="926353"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>329749</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>199466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1015105</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>180111</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="378" name="直線矢印コネクタ 377">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D4A8A5-C2E3-400B-97A2-CB395C49D3F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="7"/>
+          <a:endCxn id="377" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13440631" y="19652878"/>
+          <a:ext cx="6983062" cy="1370174"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>458359</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>199466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1015105</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>100927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="381" name="直線矢印コネクタ 380">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EFDF0E6-DEE0-4848-9E2B-AE46AFDB2DBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="420" idx="0"/>
+          <a:endCxn id="377" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16258653" y="19652878"/>
+          <a:ext cx="4165040" cy="1059402"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>614680</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>173990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180340</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>173990</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="390" name="楕円 389">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9EC1537-6B27-4195-842E-E9F390516F70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14394180" y="18690590"/>
+          <a:ext cx="911860" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>661035</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>397510</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>176530</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="394" name="直線矢印コネクタ 393">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EEFA723-454B-4A6B-8F8E-3BADC2958903}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="112" idx="4"/>
+          <a:endCxn id="390" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14440535" y="15913100"/>
+          <a:ext cx="409575" cy="2780030"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>186615</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>193114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581436</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>85836</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="408" name="吹き出し: 四角形 407">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C605FA2-8981-24A7-A382-E510252B142C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11952791" y="14088408"/>
+          <a:ext cx="1739527" cy="355899"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 28677"/>
+            <a:gd name="adj2" fmla="val 99645"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>部品在庫を管理する工程</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1024741</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>123192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>337297</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>123192</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="409" name="楕円 408">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC962CD-D7B4-4696-9F3D-8623C52F7986}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19051270" y="15871192"/>
+          <a:ext cx="918733" cy="926353"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:shade val="15000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>121923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1026011</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="410" name="直線矢印コネクタ 409">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF8F0D92-9E34-4DCA-9F98-3A1A08F33D93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="112" idx="6"/>
+          <a:endCxn id="409" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14905168" y="16333099"/>
+          <a:ext cx="4147372" cy="17778"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>933824</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>78516</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3288080" cy="564514"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="414" name="テキスト ボックス 413">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBF946A0-5A04-469B-8D98-182899970065}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20342412" y="16289692"/>
+          <a:ext cx="3288080" cy="564514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>加工・組立工程</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>他の工程も追加できるようにスキーマ構造を検討</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2540</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>103467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>48484</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>85837</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="415" name="矢印: 下 414">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93C44EE-67DB-D3E4-DE55-BE41750AFDDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15279893" y="29978349"/>
+          <a:ext cx="1741767" cy="908723"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>98387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>916717</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>98387</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="420" name="楕円 419">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD8EAE0-9EA2-4B1F-A376-1D13395C6377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15800295" y="19551799"/>
+          <a:ext cx="916716" cy="926353"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>196625</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>45944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>590176</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>219187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="426" name="正方形/長方形 425">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748A2416-843B-F6F0-E283-8C9439A9B355}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5694978" y="15330768"/>
+          <a:ext cx="19391257" cy="3183890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>149412</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>119530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>385632</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>119530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="429" name="楕円 428">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD6C2B2-BA86-4DC0-ADD2-D500540CCB09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13932647" y="12162118"/>
+          <a:ext cx="908573" cy="926353"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>384362</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>118260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>420072</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>200287</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="430" name="コネクタ: 曲線 429">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B406A9A-90BA-4780-9FD1-3C3042AF34F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="429" idx="6"/>
+          <a:endCxn id="127" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14839950" y="12624025"/>
+          <a:ext cx="35710" cy="1703144"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 740157"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>115868</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>223969</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="433" name="テキスト ボックス 432">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{912ADE47-C570-4095-8539-5CCD28F2DD1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12554397" y="12498145"/>
+          <a:ext cx="1313180" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>株式会社アイシン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>59765</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="862929" cy="272180"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="434" name="テキスト ボックス 433">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED94EE07-CEF2-4601-9211-4BEFCF38C663}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15187706" y="13290176"/>
+          <a:ext cx="862929" cy="272180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HAS_PLANT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>74705</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>998817</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="435" name="楕円 434">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF7D696-C3F7-4226-95A7-9213DE9F16D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1561352" y="12797118"/>
+          <a:ext cx="924112" cy="926353"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>必要</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1007409</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="436" name="楕円 435">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3685B900-61BA-40DC-9C11-847978095652}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1576294" y="13962529"/>
+          <a:ext cx="917762" cy="926353"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>不要</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>706193</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>146871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>339686</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>200731</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="417" name="正方形/長方形 416">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C3624C-C509-6D86-D4F4-23139EED949B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21720958" y="14968518"/>
+          <a:ext cx="3114787" cy="748625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>工程の繋がり</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>186765</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581436</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>225387</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="437" name="正方形/長方形 436">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05FD4D1E-6FA4-4F91-952D-EBB97D179626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5685118" y="18781058"/>
+          <a:ext cx="19392377" cy="7382211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>716056</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>92188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>345739</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>149560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="418" name="正方形/長方形 417">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA82432C-030C-4B3F-9755-079D2D7C796A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21730821" y="18619247"/>
+          <a:ext cx="3110977" cy="752137"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>モノの繋がり</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1470849</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>121922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1485378</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>199466</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="449" name="直線矢印コネクタ 448">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{528E8B58-ADA9-4B17-9811-70D6F227DBEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="409" idx="4"/>
+          <a:endCxn id="377" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="20879437" y="17954216"/>
+          <a:ext cx="14529" cy="1235485"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>603996</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>225387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>268940</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>194235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="452" name="吹き出し: 四角形 451">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC19707B-4C84-FF70-C1CD-6FD00926657A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="603996" y="16668152"/>
+          <a:ext cx="3669179" cy="2747907"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 65552"/>
+            <a:gd name="adj2" fmla="val 29026"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>何をノードするか？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>・工程とモノ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>・ドリルダウンできる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>239059</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514201</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>107129</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="453" name="正方形/長方形 452">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A064E78-038C-BD46-B9B3-9F9650197109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12401177" y="31388872"/>
+          <a:ext cx="7775612" cy="3456492"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>在庫予測</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1495,13 +6629,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD7C319-8B1B-42DD-8A90-2A51718B1A7A}">
   <dimension ref="A2:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1509,7 +6643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1517,32 +6651,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1552,4 +6686,860 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCAF1CB-3FE8-4D38-815D-33DD9777C177}">
+  <dimension ref="A2:T67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="16.8984375" customWidth="1"/>
+    <col min="3" max="3" width="28.3984375" customWidth="1"/>
+    <col min="4" max="4" width="22.296875" customWidth="1"/>
+    <col min="5" max="5" width="19.59765625" customWidth="1"/>
+    <col min="6" max="6" width="21.296875" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="20.59765625" customWidth="1"/>
+    <col min="9" max="9" width="20.8984375" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" customWidth="1"/>
+    <col min="17" max="17" width="25.3984375" customWidth="1"/>
+    <col min="18" max="18" width="21.8984375" customWidth="1"/>
+    <col min="19" max="19" width="21.09765625" customWidth="1"/>
+    <col min="20" max="20" width="28.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" t="s">
+        <v>49</v>
+      </c>
+      <c r="T13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="Q14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="Q15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="Q20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="P24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="R25" t="s">
+        <v>44</v>
+      </c>
+      <c r="T25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="Q26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="Q27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="Q32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="P35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20">
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" t="s">
+        <v>18</v>
+      </c>
+      <c r="R36" t="s">
+        <v>23</v>
+      </c>
+      <c r="T36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="C37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="Q37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="Q38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T38" s="2"/>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+    </row>
+    <row r="43" spans="2:20">
+      <c r="Q43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20">
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20">
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" t="s">
+        <v>33</v>
+      </c>
+      <c r="R47" t="s">
+        <v>23</v>
+      </c>
+      <c r="T47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20">
+      <c r="C48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="Q48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" spans="2:20">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+    </row>
+    <row r="51" spans="2:20">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+    </row>
+    <row r="52" spans="2:20">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+    </row>
+    <row r="53" spans="2:20">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+    </row>
+    <row r="54" spans="2:20">
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+    </row>
+    <row r="55" spans="2:20">
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" spans="2:20">
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="P56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20">
+      <c r="C57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" t="s">
+        <v>26</v>
+      </c>
+      <c r="J57" t="s">
+        <v>73</v>
+      </c>
+      <c r="K57" t="s">
+        <v>74</v>
+      </c>
+      <c r="L57" t="s">
+        <v>75</v>
+      </c>
+      <c r="M57" t="s">
+        <v>76</v>
+      </c>
+      <c r="N57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20">
+      <c r="C58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="Q58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T58" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+    </row>
+    <row r="60" spans="2:20">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+    </row>
+    <row r="61" spans="2:20">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+    </row>
+    <row r="62" spans="2:20">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+    </row>
+    <row r="63" spans="2:20">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+    </row>
+    <row r="64" spans="2:20">
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+    </row>
+    <row r="65" spans="17:20">
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+    </row>
+    <row r="66" spans="17:20">
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+    </row>
+    <row r="67" spans="17:20">
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643A2DCD-1D3B-416A-B1F1-84AE5A3E7ABD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>